--- a/expense/摩托组/2024-08-04/汇总表.xlsx
+++ b/expense/摩托组/2024-08-04/汇总表.xlsx
@@ -58,9 +58,6 @@
     <t>收款人</t>
   </si>
   <si>
-    <t>支出单号</t>
-  </si>
-  <si>
     <t>状态</t>
   </si>
   <si>
@@ -86,6 +83,9 @@
   </si>
   <si>
     <t>张志硕</t>
+  </si>
+  <si>
+    <t>收款人已确认</t>
   </si>
   <si>
     <t>2024-05-19</t>
@@ -126,12 +126,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,67 +154,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,17 +223,70 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -251,9 +298,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,70 +307,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -343,13 +328,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -361,169 +388,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -592,6 +577,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -605,21 +599,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -648,17 +627,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -678,11 +657,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -691,152 +676,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -861,16 +846,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="41" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="41" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="41" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="41" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="41" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -879,22 +861,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -903,15 +882,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -925,6 +898,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1261,12 +1243,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
+      <selection pane="bottomLeft" activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -1283,12 +1265,11 @@
     <col min="11" max="11" width="5.375" style="1" customWidth="1"/>
     <col min="12" max="12" width="7.375" style="2" customWidth="1"/>
     <col min="13" max="13" width="7.375" style="3" customWidth="1"/>
-    <col min="14" max="14" width="9.375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="5.33333333333333" style="3" customWidth="1"/>
-    <col min="16" max="30" width="9" style="3"/>
+    <col min="14" max="14" width="14.9166666666667" style="3" customWidth="1"/>
+    <col min="15" max="29" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:14">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1304,7 +1285,7 @@
       <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="5" t="s">
@@ -1316,10 +1297,10 @@
       <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="11" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="5" t="s">
@@ -1331,68 +1312,65 @@
       <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="2" ht="1.05" customHeight="1" spans="3:14">
+    <row r="2" ht="1.05" customHeight="1" spans="3:12">
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
-      <c r="F2" s="13"/>
+      <c r="F2" s="12"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="20"/>
-      <c r="N2" s="6"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="18"/>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:14">
       <c r="A3" s="7">
         <f t="shared" ref="A3:A6" si="0">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="E3" s="13" t="s">
         <v>17</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>18</v>
       </c>
       <c r="F3" s="7">
         <v>1707</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="I3" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="21">
+      <c r="J3" s="19">
         <f>SUM(F3)</f>
         <v>1707</v>
       </c>
-      <c r="K3" s="22">
+      <c r="K3" s="7">
         <f>SUM(F3:F6)</f>
         <v>2521</v>
       </c>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23" t="s">
+      <c r="L3" s="20"/>
+      <c r="M3" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:14">
       <c r="A4" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1401,33 +1379,32 @@
       <c r="C4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="13" t="s">
         <v>25</v>
       </c>
       <c r="F4" s="7">
         <v>385</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="24"/>
-      <c r="J4" s="25">
+      <c r="I4" s="7"/>
+      <c r="J4" s="21">
         <f>SUM(F4:F6)</f>
         <v>814</v>
       </c>
-      <c r="K4" s="22"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="27"/>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:14">
       <c r="A5" s="7">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1439,25 +1416,24 @@
       <c r="D5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="13" t="s">
         <v>29</v>
       </c>
       <c r="F5" s="7">
         <v>406</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="17"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="27"/>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:14">
       <c r="A6" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1466,29 +1442,28 @@
       <c r="C6" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="13" t="s">
         <v>32</v>
       </c>
       <c r="F6" s="7">
         <v>23</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="17"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="H4:H6"/>
     <mergeCell ref="J4:J6"/>
@@ -1496,7 +1471,6 @@
     <mergeCell ref="L3:L6"/>
     <mergeCell ref="M3:M6"/>
     <mergeCell ref="N3:N6"/>
-    <mergeCell ref="O3:O6"/>
   </mergeCells>
   <conditionalFormatting sqref="C4:J4">
     <cfRule type="expression" dxfId="0" priority="6">
@@ -1513,7 +1487,7 @@
       <formula>MOD(ROW(#REF!),1+1)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:N3 A4:A6">
+  <conditionalFormatting sqref="A3:M3 A4:A6">
     <cfRule type="expression" dxfId="0" priority="13">
       <formula>MOD(ROW(#REF!),1+1)=0</formula>
     </cfRule>
